--- a/1212020cw2.xlsx
+++ b/1212020cw2.xlsx
@@ -16,7 +16,7 @@
     <t>Surname</t>
   </si>
   <si>
-    <t>Registration Number</t>
+    <t>Reg</t>
   </si>
   <si>
     <t>Department</t>
@@ -202,7 +202,7 @@
     <t>Chihanya</t>
   </si>
   <si>
-    <t>H150058v</t>
+    <t>H150058V</t>
   </si>
   <si>
     <t>Chihowa</t>
@@ -328,7 +328,7 @@
     <t>Chipuru</t>
   </si>
   <si>
-    <t>H19769X</t>
+    <t>H190769X</t>
   </si>
   <si>
     <t>Chiramba</t>
@@ -418,7 +418,7 @@
     <t>Chonyera</t>
   </si>
   <si>
-    <t>H190467y</t>
+    <t>H190467Y</t>
   </si>
   <si>
     <t>Chouraya</t>
@@ -562,7 +562,7 @@
     <t>Jackson</t>
   </si>
   <si>
-    <t>H180503m</t>
+    <t>H180503M</t>
   </si>
   <si>
     <t>Jagada</t>
@@ -724,7 +724,7 @@
     <t>Muchiriri</t>
   </si>
   <si>
-    <t>H190264r</t>
+    <t>H190264R</t>
   </si>
   <si>
     <t>Lifa</t>
@@ -790,7 +790,7 @@
     <t>Magondola</t>
   </si>
   <si>
-    <t>H170109y</t>
+    <t>H170109Y</t>
   </si>
   <si>
     <t>Magwada</t>
@@ -853,7 +853,7 @@
     <t>MALUNGA</t>
   </si>
   <si>
-    <t>H190619x</t>
+    <t>H190619X</t>
   </si>
   <si>
     <t>Malunga</t>
@@ -895,7 +895,7 @@
     <t>Mangava</t>
   </si>
   <si>
-    <t>H190623e</t>
+    <t>H190623E</t>
   </si>
   <si>
     <t>MANGO</t>
@@ -1141,7 +1141,7 @@
     <t>momberume</t>
   </si>
   <si>
-    <t>H190423m</t>
+    <t>H190423M</t>
   </si>
   <si>
     <t>Moyo</t>
@@ -1369,7 +1369,7 @@
     <t xml:space="preserve">Mutore </t>
   </si>
   <si>
-    <t>H190643q</t>
+    <t>H190643Q</t>
   </si>
   <si>
     <t xml:space="preserve">Muzambi </t>
@@ -1405,7 +1405,7 @@
     <t>Muzvidziwa</t>
   </si>
   <si>
-    <t xml:space="preserve">H190699t </t>
+    <t>H190699T</t>
   </si>
   <si>
     <t>Mwarewangepo</t>
@@ -1471,7 +1471,7 @@
     <t>Ngwengwe</t>
   </si>
   <si>
-    <t>H180048j</t>
+    <t>H180048J</t>
   </si>
   <si>
     <t>Ngwerume</t>
@@ -1744,7 +1744,7 @@
     <t>tembani</t>
   </si>
   <si>
-    <t xml:space="preserve">H180054e </t>
+    <t>H180054E</t>
   </si>
   <si>
     <t>Tenha</t>
@@ -1756,7 +1756,7 @@
     <t>Thomas</t>
   </si>
   <si>
-    <t>H190814z</t>
+    <t>H190814Z</t>
   </si>
   <si>
     <t>Togarepi</t>
@@ -1780,7 +1780,7 @@
     <t>Vhuta</t>
   </si>
   <si>
-    <t xml:space="preserve">H190233t </t>
+    <t>H190233T</t>
   </si>
   <si>
     <t>Waeni</t>
@@ -2997,7 +2997,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E306"/>
+  <dimension ref="A1:E305"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -8246,31 +8246,31 @@
     </row>
     <row r="292" ht="13.65" customHeight="1">
       <c r="A292" t="s" s="3">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B292" t="s" s="3">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C292" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D292" s="4">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E292" s="4">
         <f>D292/43</f>
-        <v>1</v>
+        <v>0.8604651162790697</v>
       </c>
     </row>
     <row r="293" ht="13.65" customHeight="1">
       <c r="A293" t="s" s="3">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B293" t="s" s="3">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C293" t="s" s="3">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D293" s="4">
         <v>37</v>
@@ -8282,175 +8282,175 @@
     </row>
     <row r="294" ht="13.65" customHeight="1">
       <c r="A294" t="s" s="3">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B294" t="s" s="3">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C294" t="s" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D294" s="4">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E294" s="4">
         <f>D294/43</f>
-        <v>0.8604651162790697</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" ht="13.65" customHeight="1">
       <c r="A295" t="s" s="3">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B295" t="s" s="3">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C295" t="s" s="3">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D295" s="4">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E295" s="4">
         <f>D295/43</f>
-        <v>1</v>
+        <v>0.6976744186046512</v>
       </c>
     </row>
     <row r="296" ht="13.65" customHeight="1">
       <c r="A296" t="s" s="3">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B296" t="s" s="3">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C296" t="s" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D296" s="4">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E296" s="4">
         <f>D296/43</f>
-        <v>0.6976744186046512</v>
+        <v>0.8604651162790697</v>
       </c>
     </row>
     <row r="297" ht="13.65" customHeight="1">
       <c r="A297" t="s" s="3">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B297" t="s" s="3">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C297" t="s" s="3">
         <v>16</v>
       </c>
       <c r="D297" s="4">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E297" s="4">
         <f>D297/43</f>
-        <v>0.8604651162790697</v>
+        <v>0.7441860465116279</v>
       </c>
     </row>
     <row r="298" ht="13.65" customHeight="1">
       <c r="A298" t="s" s="3">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B298" t="s" s="3">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C298" t="s" s="3">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D298" s="4">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E298" s="4">
         <f>D298/43</f>
-        <v>0.7441860465116279</v>
+        <v>0.6046511627906976</v>
       </c>
     </row>
     <row r="299" ht="13.65" customHeight="1">
       <c r="A299" t="s" s="3">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B299" t="s" s="3">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C299" t="s" s="3">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D299" s="4">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E299" s="4">
         <f>D299/43</f>
-        <v>0.6046511627906976</v>
+        <v>0.8604651162790697</v>
       </c>
     </row>
     <row r="300" ht="13.65" customHeight="1">
       <c r="A300" t="s" s="3">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B300" t="s" s="3">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C300" t="s" s="3">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D300" s="4">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E300" s="4">
         <f>D300/43</f>
-        <v>0.8604651162790697</v>
+        <v>0.9302325581395349</v>
       </c>
     </row>
     <row r="301" ht="13.65" customHeight="1">
       <c r="A301" t="s" s="3">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B301" t="s" s="3">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C301" t="s" s="3">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D301" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E301" s="4">
         <f>D301/43</f>
-        <v>0.9302325581395349</v>
+        <v>0.9767441860465116</v>
       </c>
     </row>
     <row r="302" ht="13.65" customHeight="1">
       <c r="A302" t="s" s="3">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B302" t="s" s="3">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C302" t="s" s="3">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D302" s="4">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E302" s="4">
         <f>D302/43</f>
-        <v>0.9767441860465116</v>
+        <v>0.8604651162790697</v>
       </c>
     </row>
     <row r="303" ht="13.65" customHeight="1">
       <c r="A303" t="s" s="3">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B303" t="s" s="3">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C303" t="s" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D303" s="4">
         <v>37</v>
@@ -8462,13 +8462,13 @@
     </row>
     <row r="304" ht="13.65" customHeight="1">
       <c r="A304" t="s" s="3">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B304" t="s" s="3">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C304" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D304" s="4">
         <v>37</v>
@@ -8480,37 +8480,19 @@
     </row>
     <row r="305" ht="13.65" customHeight="1">
       <c r="A305" t="s" s="3">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B305" t="s" s="3">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C305" t="s" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D305" s="4">
         <v>37</v>
       </c>
       <c r="E305" s="4">
         <f>D305/43</f>
-        <v>0.8604651162790697</v>
-      </c>
-    </row>
-    <row r="306" ht="13.65" customHeight="1">
-      <c r="A306" t="s" s="3">
-        <v>604</v>
-      </c>
-      <c r="B306" t="s" s="3">
-        <v>605</v>
-      </c>
-      <c r="C306" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="D306" s="4">
-        <v>37</v>
-      </c>
-      <c r="E306" s="4">
-        <f>D306/43</f>
         <v>0.8604651162790697</v>
       </c>
     </row>
